--- a/VTiger/TestData/inputData.xlsx
+++ b/VTiger/TestData/inputData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>TestCase number</t>
   </si>
@@ -67,6 +67,18 @@
   </si>
   <si>
     <t>Campaign what are we doing to increase our sales</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>prod_</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>25</t>
   </si>
 </sst>
 </file>
@@ -421,7 +433,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -480,7 +494,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -526,18 +540,46 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="49.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="56.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1"/>
+    <row r="1" spans="1:5" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
